--- a/Nevasa/CompraSimultanea/20240826/20240826_nevasa_compras_simultaneas_results.xlsx
+++ b/Nevasa/CompraSimultanea/20240826/20240826_nevasa_compras_simultaneas_results.xlsx
@@ -479,7 +479,7 @@
         <v>35802360</v>
       </c>
       <c r="C2" t="n">
-        <v>360518400</v>
+        <v>36051840</v>
       </c>
       <c r="D2" t="n">
         <v>0.6</v>
@@ -501,7 +501,7 @@
         <v>47615040</v>
       </c>
       <c r="C3" t="n">
-        <v>478594670</v>
+        <v>47859467</v>
       </c>
       <c r="D3" t="n">
         <v>0.55</v>
@@ -523,7 +523,7 @@
         <v>18227000</v>
       </c>
       <c r="C4" t="n">
-        <v>183188640</v>
+        <v>18318864</v>
       </c>
       <c r="D4" t="n">
         <v>0.54</v>
@@ -545,7 +545,7 @@
         <v>37986000</v>
       </c>
       <c r="C5" t="n">
-        <v>385966880</v>
+        <v>38596688</v>
       </c>
       <c r="D5" t="n">
         <v>0.53</v>
@@ -567,7 +567,7 @@
         <v>32605854</v>
       </c>
       <c r="C6" t="n">
-        <v>327786700</v>
+        <v>32778670</v>
       </c>
       <c r="D6" t="n">
         <v>0.53</v>
@@ -589,7 +589,7 @@
         <v>54737607</v>
       </c>
       <c r="C7" t="n">
-        <v>550277240</v>
+        <v>55027724</v>
       </c>
       <c r="D7" t="n">
         <v>0.53</v>
@@ -611,7 +611,7 @@
         <v>14824680</v>
       </c>
       <c r="C8" t="n">
-        <v>149090760</v>
+        <v>14909076</v>
       </c>
       <c r="D8" t="n">
         <v>0.61</v>
@@ -633,7 +633,7 @@
         <v>77700000</v>
       </c>
       <c r="C9" t="n">
-        <v>794404800</v>
+        <v>79440480</v>
       </c>
       <c r="D9" t="n">
         <v>0.5600000000000001</v>
@@ -655,7 +655,7 @@
         <v>244361800</v>
       </c>
       <c r="C10" t="n">
-        <v>2456324810</v>
+        <v>245632481</v>
       </c>
       <c r="D10" t="n">
         <v>0.52</v>
@@ -677,7 +677,7 @@
         <v>27888600</v>
       </c>
       <c r="C11" t="n">
-        <v>280419870</v>
+        <v>28041987</v>
       </c>
       <c r="D11" t="n">
         <v>0.55</v>
